--- a/Dataset/Placement-Data/Placement_Data_2015-2020.xlsx
+++ b/Dataset/Placement-Data/Placement_Data_2015-2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anant\My Drive\Academics\Visiting Lectures\LU-IOP\DOSLU-SAS-IOP\Dataset\Placement-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A46734-29F0-4CF1-A1FF-B9C345EFDEF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A845D65-8999-4320-899D-C33B2383BF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F032D76E-0052-40BD-AC42-2D8C4C7B4A93}"/>
   </bookViews>
@@ -129,7 +129,7 @@
     <t>G4</t>
   </si>
   <si>
-    <t>DUP</t>
+    <t>DEP</t>
   </si>
 </sst>
 </file>
@@ -489,7 +489,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEEC3626-3D81-4BF7-8A1D-A51FC37A345B}">
   <dimension ref="A1:F2501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F1:F1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
